--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H2">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I2">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J2">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.90731233333333</v>
+        <v>154.017718</v>
       </c>
       <c r="N2">
-        <v>188.721937</v>
+        <v>462.0531539999999</v>
       </c>
       <c r="O2">
-        <v>0.9393635410440488</v>
+        <v>0.9743120958630357</v>
       </c>
       <c r="P2">
-        <v>0.9393635410440487</v>
+        <v>0.9743120958630357</v>
       </c>
       <c r="Q2">
-        <v>759.2926857624127</v>
+        <v>20.75953481682666</v>
       </c>
       <c r="R2">
-        <v>6833.634171861714</v>
+        <v>186.83581335144</v>
       </c>
       <c r="S2">
-        <v>0.7141025073210836</v>
+        <v>0.03331216983234513</v>
       </c>
       <c r="T2">
-        <v>0.7141025073210836</v>
+        <v>0.03331216983234513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H3">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I3">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J3">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.761896999999999</v>
       </c>
       <c r="O3">
-        <v>0.03365734588711396</v>
+        <v>0.0142585284421194</v>
       </c>
       <c r="P3">
-        <v>0.03365734588711396</v>
+        <v>0.0142585284421194</v>
       </c>
       <c r="Q3">
-        <v>27.2054166865551</v>
+        <v>0.303804518991111</v>
       </c>
       <c r="R3">
-        <v>244.8487501789959</v>
+        <v>2.73424067092</v>
       </c>
       <c r="S3">
-        <v>0.02558625498818885</v>
+        <v>0.0004875055159840442</v>
       </c>
       <c r="T3">
-        <v>0.02558625498818885</v>
+        <v>0.0004875055159840441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H4">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I4">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J4">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.420213</v>
       </c>
       <c r="O4">
-        <v>0.02697911306883729</v>
+        <v>0.011429375694845</v>
       </c>
       <c r="P4">
-        <v>0.02697911306883729</v>
+        <v>0.011429375694845</v>
       </c>
       <c r="Q4">
-        <v>21.80736458938711</v>
+        <v>0.2435241476311111</v>
       </c>
       <c r="R4">
-        <v>196.266281304484</v>
+        <v>2.19171732868</v>
       </c>
       <c r="S4">
-        <v>0.02050947417689091</v>
+        <v>0.0003907755080132727</v>
       </c>
       <c r="T4">
-        <v>0.02050947417689091</v>
+        <v>0.0003907755080132726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.90731233333333</v>
+        <v>154.017718</v>
       </c>
       <c r="N5">
-        <v>188.721937</v>
+        <v>462.0531539999999</v>
       </c>
       <c r="O5">
-        <v>0.9393635410440488</v>
+        <v>0.9743120958630357</v>
       </c>
       <c r="P5">
-        <v>0.9393635410440487</v>
+        <v>0.9743120958630357</v>
       </c>
       <c r="Q5">
-        <v>82.29962369170532</v>
+        <v>201.496451892424</v>
       </c>
       <c r="R5">
-        <v>740.696613225348</v>
+        <v>1813.468067031816</v>
       </c>
       <c r="S5">
-        <v>0.07740146682806061</v>
+        <v>0.3233349921027488</v>
       </c>
       <c r="T5">
-        <v>0.07740146682806059</v>
+        <v>0.3233349921027487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J6">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.761896999999999</v>
       </c>
       <c r="O6">
-        <v>0.03365734588711396</v>
+        <v>0.0142585284421194</v>
       </c>
       <c r="P6">
-        <v>0.03365734588711396</v>
+        <v>0.0142585284421194</v>
       </c>
       <c r="Q6">
         <v>2.948791154798666</v>
@@ -818,10 +818,10 @@
         <v>26.539120393188</v>
       </c>
       <c r="S6">
-        <v>0.0027732904539882</v>
+        <v>0.004731832028776933</v>
       </c>
       <c r="T6">
-        <v>0.0027732904539882</v>
+        <v>0.004731832028776932</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J7">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.420213</v>
       </c>
       <c r="O7">
-        <v>0.02697911306883729</v>
+        <v>0.011429375694845</v>
       </c>
       <c r="P7">
-        <v>0.02697911306883729</v>
+        <v>0.011429375694845</v>
       </c>
       <c r="Q7">
         <v>2.363697073694667</v>
@@ -880,10 +880,10 @@
         <v>21.273273663252</v>
       </c>
       <c r="S7">
-        <v>0.002223018920797336</v>
+        <v>0.003792950036978249</v>
       </c>
       <c r="T7">
-        <v>0.002223018920797336</v>
+        <v>0.003792950036978248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>7.49753</v>
       </c>
       <c r="I8">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J8">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.90731233333333</v>
+        <v>154.017718</v>
       </c>
       <c r="N8">
-        <v>188.721937</v>
+        <v>462.0531539999999</v>
       </c>
       <c r="O8">
-        <v>0.9393635410440488</v>
+        <v>0.9743120958630357</v>
       </c>
       <c r="P8">
-        <v>0.9393635410440487</v>
+        <v>0.9743120958630357</v>
       </c>
       <c r="Q8">
-        <v>157.2164871461789</v>
+        <v>384.9174870788466</v>
       </c>
       <c r="R8">
-        <v>1414.94838431561</v>
+        <v>3464.25738370962</v>
       </c>
       <c r="S8">
-        <v>0.1478595668949046</v>
+        <v>0.6176649339279419</v>
       </c>
       <c r="T8">
-        <v>0.1478595668949046</v>
+        <v>0.6176649339279419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>7.49753</v>
       </c>
       <c r="I9">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J9">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>6.761896999999999</v>
       </c>
       <c r="O9">
-        <v>0.03365734588711396</v>
+        <v>0.0142585284421194</v>
       </c>
       <c r="P9">
-        <v>0.03365734588711396</v>
+        <v>0.0142585284421194</v>
       </c>
       <c r="Q9">
         <v>5.63305840160111</v>
@@ -1004,10 +1004,10 @@
         <v>50.69752561441</v>
       </c>
       <c r="S9">
-        <v>0.005297800444936905</v>
+        <v>0.009039190897358419</v>
       </c>
       <c r="T9">
-        <v>0.005297800444936906</v>
+        <v>0.009039190897358419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>7.49753</v>
       </c>
       <c r="I10">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J10">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>5.420213</v>
       </c>
       <c r="O10">
-        <v>0.02697911306883729</v>
+        <v>0.011429375694845</v>
       </c>
       <c r="P10">
-        <v>0.02697911306883729</v>
+        <v>0.011429375694845</v>
       </c>
       <c r="Q10">
         <v>4.515356619321111</v>
       </c>
       <c r="R10">
-        <v>40.63820957389</v>
+        <v>40.63820957388999</v>
       </c>
       <c r="S10">
-        <v>0.004246619971149043</v>
+        <v>0.007245650149853477</v>
       </c>
       <c r="T10">
-        <v>0.004246619971149044</v>
+        <v>0.007245650149853476</v>
       </c>
     </row>
   </sheetData>
